--- a/table/table5.2.xlsx
+++ b/table/table5.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\MPhil-Thesis-Project\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D40E26-9FDC-4B2C-A4E2-A2C27799A43C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78FC02A-8ACA-4B26-B2F6-442622658710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="2390" windowWidth="10550" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6690" yWindow="2480" windowWidth="17090" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -510,38 +510,38 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f>"0.150***"</f>
-        <v>0.150***</v>
+        <f>"0.123***"</f>
+        <v>0.123***</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>"0.238***"</f>
-        <v>0.238***</v>
+        <f>"0.218***"</f>
+        <v>0.218***</v>
       </c>
       <c r="D4" s="2" t="str">
-        <f>"1.152***"</f>
-        <v>1.152***</v>
+        <f>"1.175***"</f>
+        <v>1.175***</v>
       </c>
       <c r="E4" s="2" t="str">
-        <f>"-0.517***"</f>
-        <v>-0.517***</v>
+        <f>"-0.739***"</f>
+        <v>-0.739***</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="str">
-        <f>"(0.015)"</f>
-        <v>(0.015)</v>
+        <f>"(0.016)"</f>
+        <v>(0.016)</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>"(0.015)"</f>
-        <v>(0.015)</v>
+        <f>"(0.016)"</f>
+        <v>(0.016)</v>
       </c>
       <c r="D5" s="2" t="str">
-        <f>"(0.030)"</f>
-        <v>(0.030)</v>
+        <f>"(0.033)"</f>
+        <v>(0.033)</v>
       </c>
       <c r="E5" s="2" t="str">
-        <f>"(0.064)"</f>
-        <v>(0.064)</v>
+        <f>"(0.069)"</f>
+        <v>(0.069)</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -549,38 +549,38 @@
         <v>3</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f>"0.419***"</f>
-        <v>0.419***</v>
+        <f>"0.314***"</f>
+        <v>0.314***</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>"0.432***"</f>
-        <v>0.432***</v>
+        <f>"0.323***"</f>
+        <v>0.323***</v>
       </c>
       <c r="D6" s="2" t="str">
-        <f>"0.389***"</f>
-        <v>0.389***</v>
+        <f>"0.283***"</f>
+        <v>0.283***</v>
       </c>
       <c r="E6" s="2" t="str">
-        <f>"0.379***"</f>
-        <v>0.379***</v>
+        <f>"0.273***"</f>
+        <v>0.273***</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="str">
-        <f>"(0.084)"</f>
-        <v>(0.084)</v>
+        <f>"(0.090)"</f>
+        <v>(0.090)</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f>"(0.084)"</f>
-        <v>(0.084)</v>
+        <f>"(0.090)"</f>
+        <v>(0.090)</v>
       </c>
       <c r="D7" s="2" t="str">
-        <f>"(0.084)"</f>
-        <v>(0.084)</v>
+        <f>"(0.090)"</f>
+        <v>(0.090)</v>
       </c>
       <c r="E7" s="2" t="str">
-        <f>"(0.084)"</f>
-        <v>(0.084)</v>
+        <f>"(0.090)"</f>
+        <v>(0.090)</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -588,8 +588,8 @@
         <v>11</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f>"-0.376***"</f>
-        <v>-0.376***</v>
+        <f>"0.379***"</f>
+        <v>0.379***</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -597,8 +597,8 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="str">
-        <f>"(0.009)"</f>
-        <v>(0.009)</v>
+        <f>"(0.010)"</f>
+        <v>(0.010)</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -610,8 +610,8 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2" t="str">
-        <f>"1.202***"</f>
-        <v>1.202***</v>
+        <f>"1.159***"</f>
+        <v>1.159***</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -619,8 +619,8 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="str">
-        <f>"(0.027)"</f>
-        <v>(0.027)</v>
+        <f>"(0.029)"</f>
+        <v>(0.029)</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -632,8 +632,8 @@
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="str">
-        <f>"-3.096***"</f>
-        <v>-3.096***</v>
+        <f>"-3.305***"</f>
+        <v>-3.305***</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -641,8 +641,8 @@
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="str">
-        <f>"(0.108)"</f>
-        <v>(0.108)</v>
+        <f>"(0.117)"</f>
+        <v>(0.117)</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -654,8 +654,8 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="str">
-        <f>"5.209***"</f>
-        <v>5.209***</v>
+        <f>"6.305***"</f>
+        <v>6.305***</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -663,8 +663,8 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="str">
-        <f>"(0.360)"</f>
-        <v>(0.360)</v>
+        <f>"(0.389)"</f>
+        <v>(0.389)</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -764,20 +764,20 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="str">
-        <f>"0.042***"</f>
-        <v>0.042***</v>
+        <f>"0.039***"</f>
+        <v>0.039***</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f>"0.037***"</f>
-        <v>0.037***</v>
+        <f>"0.034***"</f>
+        <v>0.034***</v>
       </c>
       <c r="D21" s="2" t="str">
-        <f>"-0.035**"</f>
-        <v>-0.035**</v>
+        <f>"-0.030**"</f>
+        <v>-0.030**</v>
       </c>
       <c r="E21" s="2" t="str">
-        <f>"0.108***"</f>
-        <v>0.108***</v>
+        <f>"0.102***"</f>
+        <v>0.102***</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -794,8 +794,8 @@
         <v>(0.015)</v>
       </c>
       <c r="E22" s="2" t="str">
-        <f>"(0.029)"</f>
-        <v>(0.029)</v>
+        <f>"(0.030)"</f>
+        <v>(0.030)</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -803,38 +803,38 @@
         <v>3</v>
       </c>
       <c r="B23" s="2" t="str">
-        <f>"-0.085**"</f>
-        <v>-0.085**</v>
-      </c>
-      <c r="C23" s="2" t="str">
         <f>"-0.084**"</f>
         <v>-0.084**</v>
       </c>
+      <c r="C23" s="2" t="str">
+        <f>"-0.083**"</f>
+        <v>-0.083**</v>
+      </c>
       <c r="D23" s="2" t="str">
-        <f>"-0.086**"</f>
-        <v>-0.086**</v>
+        <f>"-0.084**"</f>
+        <v>-0.084**</v>
       </c>
       <c r="E23" s="2" t="str">
-        <f>"-0.085**"</f>
-        <v>-0.085**</v>
+        <f>"-0.083**"</f>
+        <v>-0.083**</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="str">
-        <f>"(0.036)"</f>
-        <v>(0.036)</v>
+        <f>"(0.037)"</f>
+        <v>(0.037)</v>
       </c>
       <c r="C24" s="2" t="str">
-        <f>"(0.036)"</f>
-        <v>(0.036)</v>
+        <f>"(0.037)"</f>
+        <v>(0.037)</v>
       </c>
       <c r="D24" s="2" t="str">
-        <f>"(0.036)"</f>
-        <v>(0.036)</v>
+        <f>"(0.037)"</f>
+        <v>(0.037)</v>
       </c>
       <c r="E24" s="2" t="str">
-        <f>"(0.036)"</f>
-        <v>(0.036)</v>
+        <f>"(0.037)"</f>
+        <v>(0.037)</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -842,8 +842,8 @@
         <v>11</v>
       </c>
       <c r="B25" s="2" t="str">
-        <f>"-0.020***"</f>
-        <v>-0.020***</v>
+        <f>"-0.019***"</f>
+        <v>-0.019***</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -886,8 +886,8 @@
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2" t="str">
-        <f>"0.258***"</f>
-        <v>0.258***</v>
+        <f>"0.230***"</f>
+        <v>0.230***</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -895,8 +895,8 @@
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="str">
-        <f>"(0.052)"</f>
-        <v>(0.052)</v>
+        <f>"(0.053)"</f>
+        <v>(0.053)</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -908,8 +908,8 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="str">
-        <f>"-0.433***"</f>
-        <v>-0.433***</v>
+        <f>"-0.412**"</f>
+        <v>-0.412**</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -917,8 +917,8 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="str">
-        <f>"(0.167)"</f>
-        <v>(0.167)</v>
+        <f>"(0.171)"</f>
+        <v>(0.171)</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
